--- a/Codes Données/pib_D_val.xlsx
+++ b/Codes Données/pib_D_val.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN123"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13747,121 +13747,121 @@
         <v>44562</v>
       </c>
       <c r="B110">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C110">
-        <v>227371</v>
+        <v>227195</v>
       </c>
       <c r="D110">
-        <v>2107</v>
+        <v>1896</v>
       </c>
       <c r="E110">
-        <v>329744</v>
+        <v>330649</v>
       </c>
       <c r="F110">
-        <v>89560</v>
+        <v>89415</v>
       </c>
       <c r="G110">
-        <v>124784</v>
+        <v>124677</v>
       </c>
       <c r="H110">
-        <v>35224</v>
+        <v>35262</v>
       </c>
       <c r="I110">
-        <v>12452</v>
+        <v>12464</v>
       </c>
       <c r="J110">
-        <v>12662</v>
+        <v>12567</v>
       </c>
       <c r="K110">
-        <v>55073</v>
+        <v>55629</v>
       </c>
       <c r="L110">
-        <v>34877</v>
+        <v>35197</v>
       </c>
       <c r="M110">
-        <v>15146</v>
+        <v>15442</v>
       </c>
       <c r="N110">
-        <v>19731</v>
+        <v>19755</v>
       </c>
       <c r="O110">
-        <v>19582</v>
+        <v>19814</v>
       </c>
       <c r="P110">
-        <v>4453</v>
+        <v>4543</v>
       </c>
       <c r="Q110">
-        <v>15129</v>
+        <v>15271</v>
       </c>
       <c r="R110">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="S110">
-        <v>75436</v>
+        <v>76588</v>
       </c>
       <c r="T110">
-        <v>67735</v>
+        <v>68196</v>
       </c>
       <c r="U110">
-        <v>254308</v>
+        <v>254061</v>
       </c>
       <c r="V110">
-        <v>26937</v>
+        <v>26866</v>
       </c>
       <c r="W110">
-        <v>67297</v>
+        <v>67257</v>
       </c>
       <c r="X110">
-        <v>3752</v>
+        <v>3834</v>
       </c>
       <c r="Y110">
-        <v>183259</v>
+        <v>182970</v>
       </c>
       <c r="Z110">
-        <v>187011</v>
+        <v>186804</v>
       </c>
       <c r="AA110">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="AB110">
-        <v>192539</v>
+        <v>192256</v>
       </c>
       <c r="AC110">
-        <v>12748</v>
+        <v>12792</v>
       </c>
       <c r="AD110">
-        <v>179791</v>
+        <v>179464</v>
       </c>
       <c r="AE110">
-        <v>57416</v>
+        <v>57364</v>
       </c>
       <c r="AF110">
-        <v>10967</v>
+        <v>10878</v>
       </c>
       <c r="AG110">
-        <v>111408</v>
+        <v>111222</v>
       </c>
       <c r="AH110">
-        <v>103117</v>
+        <v>103142</v>
       </c>
       <c r="AI110">
-        <v>122677</v>
+        <v>122781</v>
       </c>
       <c r="AJ110">
-        <v>19560</v>
+        <v>19639</v>
       </c>
       <c r="AK110">
-        <v>3172</v>
+        <v>3178</v>
       </c>
       <c r="AL110">
-        <v>331851</v>
+        <v>332545</v>
       </c>
       <c r="AM110">
-        <v>6996</v>
+        <v>7690</v>
       </c>
       <c r="AN110">
-        <v>7701</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="111">
@@ -13869,121 +13869,121 @@
         <v>44652</v>
       </c>
       <c r="B111">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C111">
-        <v>232634</v>
+        <v>232640</v>
       </c>
       <c r="D111">
-        <v>1460</v>
+        <v>1306</v>
       </c>
       <c r="E111">
-        <v>337111</v>
+        <v>337882</v>
       </c>
       <c r="F111">
-        <v>97391</v>
+        <v>97341</v>
       </c>
       <c r="G111">
-        <v>137280</v>
+        <v>137147</v>
       </c>
       <c r="H111">
-        <v>39889</v>
+        <v>39806</v>
       </c>
       <c r="I111">
-        <v>15151</v>
+        <v>15165</v>
       </c>
       <c r="J111">
-        <v>12726</v>
+        <v>12694</v>
       </c>
       <c r="K111">
-        <v>56524</v>
+        <v>56634</v>
       </c>
       <c r="L111">
-        <v>36286</v>
+        <v>36722</v>
       </c>
       <c r="M111">
-        <v>15459</v>
+        <v>16027</v>
       </c>
       <c r="N111">
-        <v>20827</v>
+        <v>20695</v>
       </c>
       <c r="O111">
-        <v>19637</v>
+        <v>19309</v>
       </c>
       <c r="P111">
-        <v>4967</v>
+        <v>5048</v>
       </c>
       <c r="Q111">
-        <v>14670</v>
+        <v>14261</v>
       </c>
       <c r="R111">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="S111">
-        <v>77399</v>
+        <v>78083</v>
       </c>
       <c r="T111">
-        <v>69250</v>
+        <v>69328</v>
       </c>
       <c r="U111">
-        <v>259712</v>
+        <v>259799</v>
       </c>
       <c r="V111">
-        <v>27078</v>
+        <v>27159</v>
       </c>
       <c r="W111">
-        <v>67810</v>
+        <v>67879</v>
       </c>
       <c r="X111">
-        <v>3810</v>
+        <v>3927</v>
       </c>
       <c r="Y111">
-        <v>188092</v>
+        <v>187993</v>
       </c>
       <c r="Z111">
-        <v>191902</v>
+        <v>191920</v>
       </c>
       <c r="AA111">
-        <v>40732</v>
+        <v>40720</v>
       </c>
       <c r="AB111">
-        <v>198840</v>
+        <v>198747</v>
       </c>
       <c r="AC111">
-        <v>13215</v>
+        <v>13211</v>
       </c>
       <c r="AD111">
-        <v>185625</v>
+        <v>185536</v>
       </c>
       <c r="AE111">
-        <v>57643</v>
+        <v>57480</v>
       </c>
       <c r="AF111">
-        <v>11620</v>
+        <v>11530</v>
       </c>
       <c r="AG111">
-        <v>116362</v>
+        <v>116526</v>
       </c>
       <c r="AH111">
-        <v>113789</v>
+        <v>113853</v>
       </c>
       <c r="AI111">
-        <v>135820</v>
+        <v>135841</v>
       </c>
       <c r="AJ111">
-        <v>22031</v>
+        <v>21988</v>
       </c>
       <c r="AK111">
-        <v>4403</v>
+        <v>4411</v>
       </c>
       <c r="AL111">
-        <v>338571</v>
+        <v>339188</v>
       </c>
       <c r="AM111">
-        <v>7311</v>
+        <v>7927</v>
       </c>
       <c r="AN111">
-        <v>8149</v>
+        <v>8755</v>
       </c>
     </row>
     <row r="112">
@@ -13991,121 +13991,121 @@
         <v>44743</v>
       </c>
       <c r="B112">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="C112">
-        <v>239223</v>
+        <v>239763</v>
       </c>
       <c r="D112">
-        <v>-1498</v>
+        <v>-1362</v>
       </c>
       <c r="E112">
-        <v>346243</v>
+        <v>346609</v>
       </c>
       <c r="F112">
-        <v>100659</v>
+        <v>100731</v>
       </c>
       <c r="G112">
-        <v>140737</v>
+        <v>140740</v>
       </c>
       <c r="H112">
-        <v>40078</v>
+        <v>40009</v>
       </c>
       <c r="I112">
-        <v>14791</v>
+        <v>14792</v>
       </c>
       <c r="J112">
-        <v>13100</v>
+        <v>13444</v>
       </c>
       <c r="K112">
-        <v>59288</v>
+        <v>59006</v>
       </c>
       <c r="L112">
-        <v>37760</v>
+        <v>38008</v>
       </c>
       <c r="M112">
-        <v>16326</v>
+        <v>16607</v>
       </c>
       <c r="N112">
-        <v>21434</v>
+        <v>21401</v>
       </c>
       <c r="O112">
-        <v>20940</v>
+        <v>20403</v>
       </c>
       <c r="P112">
-        <v>5662</v>
+        <v>5554</v>
       </c>
       <c r="Q112">
-        <v>15278</v>
+        <v>14849</v>
       </c>
       <c r="R112">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="S112">
-        <v>79082</v>
+        <v>78960</v>
       </c>
       <c r="T112">
-        <v>72388</v>
+        <v>72450</v>
       </c>
       <c r="U112">
-        <v>267161</v>
+        <v>267649</v>
       </c>
       <c r="V112">
-        <v>27938</v>
+        <v>27886</v>
       </c>
       <c r="W112">
-        <v>69508</v>
+        <v>69449</v>
       </c>
       <c r="X112">
-        <v>3935</v>
+        <v>4075</v>
       </c>
       <c r="Y112">
-        <v>193718</v>
+        <v>194125</v>
       </c>
       <c r="Z112">
-        <v>197653</v>
+        <v>198200</v>
       </c>
       <c r="AA112">
-        <v>41570</v>
+        <v>41563</v>
       </c>
       <c r="AB112">
-        <v>203959</v>
+        <v>204366</v>
       </c>
       <c r="AC112">
-        <v>13511</v>
+        <v>13647</v>
       </c>
       <c r="AD112">
-        <v>190448</v>
+        <v>190719</v>
       </c>
       <c r="AE112">
-        <v>59216</v>
+        <v>59158</v>
       </c>
       <c r="AF112">
-        <v>11057</v>
+        <v>11209</v>
       </c>
       <c r="AG112">
-        <v>120175</v>
+        <v>120352</v>
       </c>
       <c r="AH112">
-        <v>120981</v>
+        <v>121032</v>
       </c>
       <c r="AI112">
-        <v>142235</v>
+        <v>142102</v>
       </c>
       <c r="AJ112">
-        <v>21254</v>
+        <v>21070</v>
       </c>
       <c r="AK112">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="AL112">
-        <v>344745</v>
+        <v>345247</v>
       </c>
       <c r="AM112">
-        <v>5909</v>
+        <v>5746</v>
       </c>
       <c r="AN112">
-        <v>6694</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="113">
@@ -14113,121 +14113,121 @@
         <v>44835</v>
       </c>
       <c r="B113">
-        <v>936</v>
+        <v>892</v>
       </c>
       <c r="C113">
-        <v>240419</v>
+        <v>241351</v>
       </c>
       <c r="D113">
-        <v>10056</v>
+        <v>10235</v>
       </c>
       <c r="E113">
-        <v>348406</v>
+        <v>348648</v>
       </c>
       <c r="F113">
-        <v>101708</v>
+        <v>101806</v>
       </c>
       <c r="G113">
-        <v>143287</v>
+        <v>143264</v>
       </c>
       <c r="H113">
-        <v>41579</v>
+        <v>41458</v>
       </c>
       <c r="I113">
-        <v>15771</v>
+        <v>15745</v>
       </c>
       <c r="J113">
-        <v>12888</v>
+        <v>13711</v>
       </c>
       <c r="K113">
-        <v>58121</v>
+        <v>58205</v>
       </c>
       <c r="L113">
-        <v>37483</v>
+        <v>37535</v>
       </c>
       <c r="M113">
-        <v>16259</v>
+        <v>16338</v>
       </c>
       <c r="N113">
-        <v>21224</v>
+        <v>21197</v>
       </c>
       <c r="O113">
-        <v>20021</v>
+        <v>20075</v>
       </c>
       <c r="P113">
-        <v>5731</v>
+        <v>5663</v>
       </c>
       <c r="Q113">
-        <v>14290</v>
+        <v>14412</v>
       </c>
       <c r="R113">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="S113">
-        <v>79279</v>
+        <v>78547</v>
       </c>
       <c r="T113">
-        <v>71009</v>
+        <v>71916</v>
       </c>
       <c r="U113">
-        <v>269127</v>
+        <v>270101</v>
       </c>
       <c r="V113">
-        <v>28708</v>
+        <v>28750</v>
       </c>
       <c r="W113">
-        <v>71196</v>
+        <v>71226</v>
       </c>
       <c r="X113">
-        <v>3999</v>
+        <v>4143</v>
       </c>
       <c r="Y113">
-        <v>193932</v>
+        <v>194732</v>
       </c>
       <c r="Z113">
-        <v>197931</v>
+        <v>198875</v>
       </c>
       <c r="AA113">
-        <v>42488</v>
+        <v>42476</v>
       </c>
       <c r="AB113">
-        <v>204969</v>
+        <v>205758</v>
       </c>
       <c r="AC113">
-        <v>13480</v>
+        <v>13546</v>
       </c>
       <c r="AD113">
-        <v>191489</v>
+        <v>192212</v>
       </c>
       <c r="AE113">
-        <v>57721</v>
+        <v>57789</v>
       </c>
       <c r="AF113">
-        <v>11404</v>
+        <v>11431</v>
       </c>
       <c r="AG113">
-        <v>122364</v>
+        <v>122992</v>
       </c>
       <c r="AH113">
-        <v>111512</v>
+        <v>111480</v>
       </c>
       <c r="AI113">
-        <v>133231</v>
+        <v>133029</v>
       </c>
       <c r="AJ113">
-        <v>21719</v>
+        <v>21549</v>
       </c>
       <c r="AK113">
-        <v>4734</v>
+        <v>4719</v>
       </c>
       <c r="AL113">
-        <v>358462</v>
+        <v>358883</v>
       </c>
       <c r="AM113">
-        <v>7334</v>
+        <v>5739</v>
       </c>
       <c r="AN113">
-        <v>8270</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="114">
@@ -14235,121 +14235,121 @@
         <v>44927</v>
       </c>
       <c r="B114">
-        <v>819</v>
+        <v>758</v>
       </c>
       <c r="C114">
-        <v>245254</v>
+        <v>245347</v>
       </c>
       <c r="D114">
-        <v>17071</v>
+        <v>16557</v>
       </c>
       <c r="E114">
-        <v>352156</v>
+        <v>352559</v>
       </c>
       <c r="F114">
-        <v>102239</v>
+        <v>101683</v>
       </c>
       <c r="G114">
-        <v>146598</v>
+        <v>145577</v>
       </c>
       <c r="H114">
-        <v>44359</v>
+        <v>43894</v>
       </c>
       <c r="I114">
-        <v>16778</v>
+        <v>16706</v>
       </c>
       <c r="J114">
-        <v>12717</v>
+        <v>14225</v>
       </c>
       <c r="K114">
-        <v>60142</v>
+        <v>61055</v>
       </c>
       <c r="L114">
-        <v>39540</v>
+        <v>39904</v>
       </c>
       <c r="M114">
-        <v>17897</v>
+        <v>18752</v>
       </c>
       <c r="N114">
-        <v>21643</v>
+        <v>21152</v>
       </c>
       <c r="O114">
-        <v>19964</v>
+        <v>20539</v>
       </c>
       <c r="P114">
-        <v>5667</v>
+        <v>5745</v>
       </c>
       <c r="Q114">
-        <v>14297</v>
+        <v>14794</v>
       </c>
       <c r="R114">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="S114">
-        <v>78136</v>
+        <v>78246</v>
       </c>
       <c r="T114">
-        <v>72859</v>
+        <v>75280</v>
       </c>
       <c r="U114">
-        <v>274020</v>
+        <v>274313</v>
       </c>
       <c r="V114">
-        <v>28766</v>
+        <v>28966</v>
       </c>
       <c r="W114">
-        <v>71849</v>
+        <v>71892</v>
       </c>
       <c r="X114">
-        <v>3888</v>
+        <v>4039</v>
       </c>
       <c r="Y114">
-        <v>198283</v>
+        <v>198382</v>
       </c>
       <c r="Z114">
-        <v>202171</v>
+        <v>202421</v>
       </c>
       <c r="AA114">
-        <v>43083</v>
+        <v>42926</v>
       </c>
       <c r="AB114">
-        <v>210305</v>
+        <v>210372</v>
       </c>
       <c r="AC114">
-        <v>14791</v>
+        <v>14847</v>
       </c>
       <c r="AD114">
-        <v>195514</v>
+        <v>195525</v>
       </c>
       <c r="AE114">
-        <v>58419</v>
+        <v>58411</v>
       </c>
       <c r="AF114">
-        <v>12139</v>
+        <v>12037</v>
       </c>
       <c r="AG114">
-        <v>124956</v>
+        <v>125077</v>
       </c>
       <c r="AH114">
-        <v>108029</v>
+        <v>107791</v>
       </c>
       <c r="AI114">
-        <v>129527</v>
+        <v>129020</v>
       </c>
       <c r="AJ114">
-        <v>21498</v>
+        <v>21229</v>
       </c>
       <c r="AK114">
-        <v>4756</v>
+        <v>4716</v>
       </c>
       <c r="AL114">
-        <v>369227</v>
+        <v>369116</v>
       </c>
       <c r="AM114">
-        <v>4458</v>
+        <v>2208</v>
       </c>
       <c r="AN114">
-        <v>5277</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="115">
@@ -14357,121 +14357,121 @@
         <v>45017</v>
       </c>
       <c r="B115">
-        <v>833</v>
+        <v>763</v>
       </c>
       <c r="C115">
-        <v>249549</v>
+        <v>248834</v>
       </c>
       <c r="D115">
-        <v>14905</v>
+        <v>14120</v>
       </c>
       <c r="E115">
-        <v>355312</v>
+        <v>355613</v>
       </c>
       <c r="F115">
-        <v>96898</v>
+        <v>96301</v>
       </c>
       <c r="G115">
-        <v>141774</v>
+        <v>140497</v>
       </c>
       <c r="H115">
-        <v>44876</v>
+        <v>44196</v>
       </c>
       <c r="I115">
-        <v>17871</v>
+        <v>17767</v>
       </c>
       <c r="J115">
-        <v>13061</v>
+        <v>14757</v>
       </c>
       <c r="K115">
-        <v>59193</v>
+        <v>60794</v>
       </c>
       <c r="L115">
-        <v>38396</v>
+        <v>39631</v>
       </c>
       <c r="M115">
-        <v>16256</v>
+        <v>18260</v>
       </c>
       <c r="N115">
-        <v>22140</v>
+        <v>21371</v>
       </c>
       <c r="O115">
-        <v>20151</v>
+        <v>20554</v>
       </c>
       <c r="P115">
-        <v>6057</v>
+        <v>5981</v>
       </c>
       <c r="Q115">
-        <v>14094</v>
+        <v>14573</v>
       </c>
       <c r="R115">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="S115">
-        <v>76412</v>
+        <v>77503</v>
       </c>
       <c r="T115">
-        <v>72254</v>
+        <v>75551</v>
       </c>
       <c r="U115">
-        <v>278900</v>
+        <v>278110</v>
       </c>
       <c r="V115">
-        <v>29351</v>
+        <v>29276</v>
       </c>
       <c r="W115">
-        <v>73218</v>
+        <v>73079</v>
       </c>
       <c r="X115">
-        <v>4098</v>
+        <v>4190</v>
       </c>
       <c r="Y115">
-        <v>201584</v>
+        <v>200841</v>
       </c>
       <c r="Z115">
-        <v>205682</v>
+        <v>205031</v>
       </c>
       <c r="AA115">
-        <v>43867</v>
+        <v>43803</v>
       </c>
       <c r="AB115">
-        <v>214406</v>
+        <v>213614</v>
       </c>
       <c r="AC115">
-        <v>14468</v>
+        <v>14465</v>
       </c>
       <c r="AD115">
-        <v>199938</v>
+        <v>199149</v>
       </c>
       <c r="AE115">
-        <v>58475</v>
+        <v>58388</v>
       </c>
       <c r="AF115">
-        <v>12361</v>
+        <v>12209</v>
       </c>
       <c r="AG115">
-        <v>129102</v>
+        <v>128552</v>
       </c>
       <c r="AH115">
-        <v>105433</v>
+        <v>105180</v>
       </c>
       <c r="AI115">
-        <v>126869</v>
+        <v>126377</v>
       </c>
       <c r="AJ115">
-        <v>21436</v>
+        <v>21197</v>
       </c>
       <c r="AK115">
-        <v>5049</v>
+        <v>4994</v>
       </c>
       <c r="AL115">
-        <v>370217</v>
+        <v>369733</v>
       </c>
       <c r="AM115">
-        <v>3325</v>
+        <v>1189</v>
       </c>
       <c r="AN115">
-        <v>4158</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="116">
@@ -14479,121 +14479,121 @@
         <v>45108</v>
       </c>
       <c r="B116">
-        <v>849</v>
+        <v>787</v>
       </c>
       <c r="C116">
-        <v>253625</v>
+        <v>253324</v>
       </c>
       <c r="D116">
-        <v>12094</v>
+        <v>11377</v>
       </c>
       <c r="E116">
-        <v>361956</v>
+        <v>362631</v>
       </c>
       <c r="F116">
-        <v>94144</v>
+        <v>93333</v>
       </c>
       <c r="G116">
-        <v>139060</v>
+        <v>137656</v>
       </c>
       <c r="H116">
-        <v>44916</v>
+        <v>44323</v>
       </c>
       <c r="I116">
-        <v>17871</v>
+        <v>17759</v>
       </c>
       <c r="J116">
-        <v>13178</v>
+        <v>15221</v>
       </c>
       <c r="K116">
-        <v>60146</v>
+        <v>62161</v>
       </c>
       <c r="L116">
-        <v>38119</v>
+        <v>39781</v>
       </c>
       <c r="M116">
-        <v>15799</v>
+        <v>17892</v>
       </c>
       <c r="N116">
-        <v>22320</v>
+        <v>21889</v>
       </c>
       <c r="O116">
-        <v>21377</v>
+        <v>21772</v>
       </c>
       <c r="P116">
-        <v>6550</v>
+        <v>6760</v>
       </c>
       <c r="Q116">
-        <v>14827</v>
+        <v>15012</v>
       </c>
       <c r="R116">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="S116">
-        <v>78424</v>
+        <v>79578</v>
       </c>
       <c r="T116">
-        <v>73324</v>
+        <v>77382</v>
       </c>
       <c r="U116">
-        <v>283532</v>
+        <v>283053</v>
       </c>
       <c r="V116">
-        <v>29907</v>
+        <v>29729</v>
       </c>
       <c r="W116">
-        <v>74332</v>
+        <v>73964</v>
       </c>
       <c r="X116">
-        <v>4164</v>
+        <v>4266</v>
       </c>
       <c r="Y116">
-        <v>205036</v>
+        <v>204823</v>
       </c>
       <c r="Z116">
-        <v>209200</v>
+        <v>209089</v>
       </c>
       <c r="AA116">
-        <v>44425</v>
+        <v>44235</v>
       </c>
       <c r="AB116">
-        <v>217751</v>
+        <v>217480</v>
       </c>
       <c r="AC116">
-        <v>14743</v>
+        <v>14792</v>
       </c>
       <c r="AD116">
-        <v>203008</v>
+        <v>202688</v>
       </c>
       <c r="AE116">
-        <v>59310</v>
+        <v>59341</v>
       </c>
       <c r="AF116">
-        <v>11469</v>
+        <v>11603</v>
       </c>
       <c r="AG116">
-        <v>132229</v>
+        <v>131744</v>
       </c>
       <c r="AH116">
-        <v>104946</v>
+        <v>104658</v>
       </c>
       <c r="AI116">
-        <v>126966</v>
+        <v>126279</v>
       </c>
       <c r="AJ116">
-        <v>22020</v>
+        <v>21621</v>
       </c>
       <c r="AK116">
-        <v>5156</v>
+        <v>5102</v>
       </c>
       <c r="AL116">
-        <v>374050</v>
+        <v>374008</v>
       </c>
       <c r="AM116">
-        <v>4251</v>
+        <v>1409</v>
       </c>
       <c r="AN116">
-        <v>5100</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="117">
@@ -14601,121 +14601,121 @@
         <v>45200</v>
       </c>
       <c r="B117">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="C117">
-        <v>258234</v>
+        <v>258326</v>
       </c>
       <c r="D117">
-        <v>14766</v>
+        <v>15395</v>
       </c>
       <c r="E117">
-        <v>370064</v>
+        <v>369509</v>
       </c>
       <c r="F117">
-        <v>94857</v>
+        <v>95133</v>
       </c>
       <c r="G117">
-        <v>142819</v>
+        <v>142673</v>
       </c>
       <c r="H117">
-        <v>47962</v>
+        <v>47540</v>
       </c>
       <c r="I117">
-        <v>19670</v>
+        <v>19562</v>
       </c>
       <c r="J117">
-        <v>13431</v>
+        <v>15543</v>
       </c>
       <c r="K117">
-        <v>63450</v>
+        <v>62773</v>
       </c>
       <c r="L117">
-        <v>40852</v>
+        <v>40403</v>
       </c>
       <c r="M117">
-        <v>17702</v>
+        <v>17756</v>
       </c>
       <c r="N117">
-        <v>23150</v>
+        <v>22647</v>
       </c>
       <c r="O117">
-        <v>21941</v>
+        <v>21756</v>
       </c>
       <c r="P117">
-        <v>6833</v>
+        <v>6581</v>
       </c>
       <c r="Q117">
-        <v>15108</v>
+        <v>15175</v>
       </c>
       <c r="R117">
-        <v>657</v>
+        <v>614</v>
       </c>
       <c r="S117">
-        <v>81745</v>
+        <v>81014</v>
       </c>
       <c r="T117">
-        <v>76881</v>
+        <v>78316</v>
       </c>
       <c r="U117">
-        <v>288319</v>
+        <v>288495</v>
       </c>
       <c r="V117">
-        <v>30085</v>
+        <v>30169</v>
       </c>
       <c r="W117">
-        <v>74922</v>
+        <v>74979</v>
       </c>
       <c r="X117">
-        <v>4184</v>
+        <v>4270</v>
       </c>
       <c r="Y117">
-        <v>209213</v>
+        <v>209246</v>
       </c>
       <c r="Z117">
-        <v>213397</v>
+        <v>213516</v>
       </c>
       <c r="AA117">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="AB117">
-        <v>223552</v>
+        <v>223512</v>
       </c>
       <c r="AC117">
-        <v>15197</v>
+        <v>15307</v>
       </c>
       <c r="AD117">
-        <v>208355</v>
+        <v>208205</v>
       </c>
       <c r="AE117">
-        <v>60000</v>
+        <v>59900</v>
       </c>
       <c r="AF117">
-        <v>11689</v>
+        <v>11735</v>
       </c>
       <c r="AG117">
-        <v>136666</v>
+        <v>136570</v>
       </c>
       <c r="AH117">
-        <v>104361</v>
+        <v>103871</v>
       </c>
       <c r="AI117">
-        <v>128053</v>
+        <v>127278</v>
       </c>
       <c r="AJ117">
-        <v>23692</v>
+        <v>23407</v>
       </c>
       <c r="AK117">
-        <v>5331</v>
+        <v>5296</v>
       </c>
       <c r="AL117">
-        <v>384830</v>
+        <v>384904</v>
       </c>
       <c r="AM117">
-        <v>3846</v>
+        <v>1724</v>
       </c>
       <c r="AN117">
-        <v>4864</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="118">
@@ -14723,121 +14723,121 @@
         <v>45292</v>
       </c>
       <c r="B118">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="C118">
-        <v>263059</v>
+        <v>262237</v>
       </c>
       <c r="D118">
-        <v>16715</v>
+        <v>16192</v>
       </c>
       <c r="E118">
-        <v>374529</v>
+        <v>375198</v>
       </c>
       <c r="F118">
-        <v>96492</v>
+        <v>95931</v>
       </c>
       <c r="G118">
-        <v>146064</v>
+        <v>145228</v>
       </c>
       <c r="H118">
-        <v>49572</v>
+        <v>49297</v>
       </c>
       <c r="I118">
-        <v>19874</v>
+        <v>19870</v>
       </c>
       <c r="J118">
-        <v>13573</v>
+        <v>15612</v>
       </c>
       <c r="K118">
-        <v>64112</v>
+        <v>64427</v>
       </c>
       <c r="L118">
-        <v>42477</v>
+        <v>42531</v>
       </c>
       <c r="M118">
-        <v>19561</v>
+        <v>20054</v>
       </c>
       <c r="N118">
-        <v>22916</v>
+        <v>22477</v>
       </c>
       <c r="O118">
-        <v>20962</v>
+        <v>21264</v>
       </c>
       <c r="P118">
-        <v>6477</v>
+        <v>6385</v>
       </c>
       <c r="Q118">
-        <v>14485</v>
+        <v>14879</v>
       </c>
       <c r="R118">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="S118">
-        <v>81448</v>
+        <v>82930</v>
       </c>
       <c r="T118">
-        <v>77685</v>
+        <v>80039</v>
       </c>
       <c r="U118">
-        <v>293081</v>
+        <v>292268</v>
       </c>
       <c r="V118">
-        <v>30022</v>
+        <v>30031</v>
       </c>
       <c r="W118">
-        <v>75700</v>
+        <v>75733</v>
       </c>
       <c r="X118">
-        <v>4208</v>
+        <v>4257</v>
       </c>
       <c r="Y118">
-        <v>213173</v>
+        <v>212278</v>
       </c>
       <c r="Z118">
-        <v>217381</v>
+        <v>216535</v>
       </c>
       <c r="AA118">
-        <v>45678</v>
+        <v>45702</v>
       </c>
       <c r="AB118">
-        <v>227491</v>
+        <v>226590</v>
       </c>
       <c r="AC118">
-        <v>15538</v>
+        <v>15620</v>
       </c>
       <c r="AD118">
-        <v>211953</v>
+        <v>210970</v>
       </c>
       <c r="AE118">
-        <v>60027</v>
+        <v>59718</v>
       </c>
       <c r="AF118">
-        <v>11818</v>
+        <v>11956</v>
       </c>
       <c r="AG118">
-        <v>140108</v>
+        <v>139296</v>
       </c>
       <c r="AH118">
-        <v>104501</v>
+        <v>104356</v>
       </c>
       <c r="AI118">
-        <v>129349</v>
+        <v>129036</v>
       </c>
       <c r="AJ118">
-        <v>24848</v>
+        <v>24680</v>
       </c>
       <c r="AK118">
-        <v>5556</v>
+        <v>5558</v>
       </c>
       <c r="AL118">
-        <v>391244</v>
+        <v>391390</v>
       </c>
       <c r="AM118">
-        <v>2873</v>
+        <v>1991</v>
       </c>
       <c r="AN118">
-        <v>3763</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="119">
@@ -14845,121 +14845,121 @@
         <v>45383</v>
       </c>
       <c r="B119">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="C119">
-        <v>266779</v>
+        <v>265127</v>
       </c>
       <c r="D119">
-        <v>17947</v>
+        <v>17033</v>
       </c>
       <c r="E119">
-        <v>376508</v>
+        <v>378044</v>
       </c>
       <c r="F119">
-        <v>97881</v>
+        <v>97345</v>
       </c>
       <c r="G119">
-        <v>148600</v>
+        <v>148038</v>
       </c>
       <c r="H119">
-        <v>50719</v>
+        <v>50693</v>
       </c>
       <c r="I119">
-        <v>20583</v>
+        <v>20552</v>
       </c>
       <c r="J119">
-        <v>13825</v>
+        <v>15789</v>
       </c>
       <c r="K119">
-        <v>62292</v>
+        <v>63788</v>
       </c>
       <c r="L119">
-        <v>40665</v>
+        <v>41769</v>
       </c>
       <c r="M119">
-        <v>17559</v>
+        <v>19181</v>
       </c>
       <c r="N119">
-        <v>23106</v>
+        <v>22588</v>
       </c>
       <c r="O119">
-        <v>20940</v>
+        <v>21371</v>
       </c>
       <c r="P119">
-        <v>6430</v>
+        <v>6388</v>
       </c>
       <c r="Q119">
-        <v>14510</v>
+        <v>14983</v>
       </c>
       <c r="R119">
-        <v>687</v>
+        <v>648</v>
       </c>
       <c r="S119">
-        <v>79674</v>
+        <v>82834</v>
       </c>
       <c r="T119">
-        <v>76117</v>
+        <v>79577</v>
       </c>
       <c r="U119">
-        <v>296834</v>
+        <v>295210</v>
       </c>
       <c r="V119">
-        <v>30055</v>
+        <v>30083</v>
       </c>
       <c r="W119">
-        <v>76273</v>
+        <v>76189</v>
       </c>
       <c r="X119">
-        <v>4282</v>
+        <v>4338</v>
       </c>
       <c r="Y119">
-        <v>216279</v>
+        <v>214683</v>
       </c>
       <c r="Z119">
-        <v>220561</v>
+        <v>219021</v>
       </c>
       <c r="AA119">
-        <v>46218</v>
+        <v>46106</v>
       </c>
       <c r="AB119">
-        <v>231150</v>
+        <v>229491</v>
       </c>
       <c r="AC119">
-        <v>15422</v>
+        <v>15518</v>
       </c>
       <c r="AD119">
-        <v>215728</v>
+        <v>213973</v>
       </c>
       <c r="AE119">
-        <v>60548</v>
+        <v>60112</v>
       </c>
       <c r="AF119">
-        <v>12134</v>
+        <v>12348</v>
       </c>
       <c r="AG119">
-        <v>143046</v>
+        <v>141513</v>
       </c>
       <c r="AH119">
-        <v>105246</v>
+        <v>105769</v>
       </c>
       <c r="AI119">
-        <v>130653</v>
+        <v>131005</v>
       </c>
       <c r="AJ119">
-        <v>25407</v>
+        <v>25236</v>
       </c>
       <c r="AK119">
-        <v>5712</v>
+        <v>5744</v>
       </c>
       <c r="AL119">
-        <v>394455</v>
+        <v>395077</v>
       </c>
       <c r="AM119">
-        <v>2771</v>
+        <v>2431</v>
       </c>
       <c r="AN119">
-        <v>3557</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="120">
@@ -14967,121 +14967,121 @@
         <v>45474</v>
       </c>
       <c r="B120">
-        <v>829</v>
+        <v>894</v>
       </c>
       <c r="C120">
-        <v>270059</v>
+        <v>267749</v>
       </c>
       <c r="D120">
-        <v>17677</v>
+        <v>16727</v>
       </c>
       <c r="E120">
-        <v>381535</v>
+        <v>383283</v>
       </c>
       <c r="F120">
-        <v>98586</v>
+        <v>97935</v>
       </c>
       <c r="G120">
-        <v>149556</v>
+        <v>148590</v>
       </c>
       <c r="H120">
-        <v>50970</v>
+        <v>50655</v>
       </c>
       <c r="I120">
-        <v>20772</v>
+        <v>20723</v>
       </c>
       <c r="J120">
-        <v>13926</v>
+        <v>15962</v>
       </c>
       <c r="K120">
-        <v>62290</v>
+        <v>64615</v>
       </c>
       <c r="L120">
-        <v>39896</v>
+        <v>42047</v>
       </c>
       <c r="M120">
-        <v>16850</v>
+        <v>19365</v>
       </c>
       <c r="N120">
-        <v>23046</v>
+        <v>22682</v>
       </c>
       <c r="O120">
-        <v>21689</v>
+        <v>21900</v>
       </c>
       <c r="P120">
-        <v>6471</v>
+        <v>6185</v>
       </c>
       <c r="Q120">
-        <v>15218</v>
+        <v>15715</v>
       </c>
       <c r="R120">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="S120">
-        <v>80230</v>
+        <v>84664</v>
       </c>
       <c r="T120">
-        <v>76216</v>
+        <v>80577</v>
       </c>
       <c r="U120">
-        <v>301305</v>
+        <v>298619</v>
       </c>
       <c r="V120">
-        <v>31246</v>
+        <v>30870</v>
       </c>
       <c r="W120">
-        <v>78043</v>
+        <v>77594</v>
       </c>
       <c r="X120">
-        <v>4374</v>
+        <v>4442</v>
       </c>
       <c r="Y120">
-        <v>218888</v>
+        <v>216583</v>
       </c>
       <c r="Z120">
-        <v>223262</v>
+        <v>221025</v>
       </c>
       <c r="AA120">
-        <v>46797</v>
+        <v>46724</v>
       </c>
       <c r="AB120">
-        <v>233688</v>
+        <v>231279</v>
       </c>
       <c r="AC120">
-        <v>15949</v>
+        <v>16059</v>
       </c>
       <c r="AD120">
-        <v>217739</v>
+        <v>215220</v>
       </c>
       <c r="AE120">
-        <v>60313</v>
+        <v>59800</v>
       </c>
       <c r="AF120">
-        <v>12211</v>
+        <v>12474</v>
       </c>
       <c r="AG120">
-        <v>145215</v>
+        <v>142946</v>
       </c>
       <c r="AH120">
-        <v>106127</v>
+        <v>105958</v>
       </c>
       <c r="AI120">
-        <v>131879</v>
+        <v>131863</v>
       </c>
       <c r="AJ120">
-        <v>25752</v>
+        <v>25905</v>
       </c>
       <c r="AK120">
-        <v>5972</v>
+        <v>6027</v>
       </c>
       <c r="AL120">
-        <v>399212</v>
+        <v>400010</v>
       </c>
       <c r="AM120">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="AN120">
-        <v>4014</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="121">
@@ -15089,121 +15089,121 @@
         <v>45566</v>
       </c>
       <c r="B121">
-        <v>940</v>
+        <v>1028</v>
       </c>
       <c r="C121">
-        <v>274927</v>
+        <v>273007</v>
       </c>
       <c r="D121">
-        <v>15791</v>
+        <v>16396</v>
       </c>
       <c r="E121">
-        <v>390925</v>
+        <v>391457</v>
       </c>
       <c r="F121">
-        <v>97070</v>
+        <v>96472</v>
       </c>
       <c r="G121">
-        <v>149342</v>
+        <v>148937</v>
       </c>
       <c r="H121">
-        <v>52272</v>
+        <v>52465</v>
       </c>
       <c r="I121">
-        <v>21993</v>
+        <v>21932</v>
       </c>
       <c r="J121">
-        <v>14392</v>
+        <v>16197</v>
       </c>
       <c r="K121">
-        <v>66505</v>
+        <v>67065</v>
       </c>
       <c r="L121">
-        <v>42079</v>
+        <v>42939</v>
       </c>
       <c r="M121">
-        <v>18697</v>
+        <v>19626</v>
       </c>
       <c r="N121">
-        <v>23382</v>
+        <v>23313</v>
       </c>
       <c r="O121">
-        <v>23701</v>
+        <v>23438</v>
       </c>
       <c r="P121">
-        <v>7830</v>
+        <v>7163</v>
       </c>
       <c r="Q121">
-        <v>15871</v>
+        <v>16275</v>
       </c>
       <c r="R121">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="S121">
-        <v>84529</v>
+        <v>87143</v>
       </c>
       <c r="T121">
-        <v>80897</v>
+        <v>83262</v>
       </c>
       <c r="U121">
-        <v>306396</v>
+        <v>304314</v>
       </c>
       <c r="V121">
-        <v>31469</v>
+        <v>31307</v>
       </c>
       <c r="W121">
-        <v>78540</v>
+        <v>78284</v>
       </c>
       <c r="X121">
-        <v>4405</v>
+        <v>4449</v>
       </c>
       <c r="Y121">
-        <v>223451</v>
+        <v>221581</v>
       </c>
       <c r="Z121">
-        <v>227856</v>
+        <v>226030</v>
       </c>
       <c r="AA121">
-        <v>47071</v>
+        <v>46977</v>
       </c>
       <c r="AB121">
-        <v>239108</v>
+        <v>237106</v>
       </c>
       <c r="AC121">
-        <v>16140</v>
+        <v>16257</v>
       </c>
       <c r="AD121">
-        <v>222968</v>
+        <v>220849</v>
       </c>
       <c r="AE121">
-        <v>61304</v>
+        <v>60737</v>
       </c>
       <c r="AF121">
-        <v>12369</v>
+        <v>12660</v>
       </c>
       <c r="AG121">
-        <v>149295</v>
+        <v>147452</v>
       </c>
       <c r="AH121">
-        <v>106454</v>
+        <v>105458</v>
       </c>
       <c r="AI121">
-        <v>133551</v>
+        <v>132541</v>
       </c>
       <c r="AJ121">
-        <v>27097</v>
+        <v>27083</v>
       </c>
       <c r="AK121">
-        <v>6336</v>
+        <v>6407</v>
       </c>
       <c r="AL121">
-        <v>406716</v>
+        <v>407853</v>
       </c>
       <c r="AM121">
-        <v>2692</v>
+        <v>2853</v>
       </c>
       <c r="AN121">
-        <v>3632</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="122">
@@ -15211,121 +15211,121 @@
         <v>45658</v>
       </c>
       <c r="B122">
-        <v>778</v>
+        <v>911</v>
       </c>
       <c r="C122">
-        <v>279798</v>
+        <v>277070</v>
       </c>
       <c r="D122">
-        <v>14642</v>
+        <v>15987</v>
       </c>
       <c r="E122">
-        <v>396762</v>
+        <v>396272</v>
       </c>
       <c r="F122">
-        <v>97710</v>
+        <v>98487</v>
       </c>
       <c r="G122">
-        <v>153403</v>
+        <v>154307</v>
       </c>
       <c r="H122">
-        <v>55693</v>
+        <v>55820</v>
       </c>
       <c r="I122">
-        <v>22065</v>
+        <v>21965</v>
       </c>
       <c r="J122">
-        <v>14443</v>
+        <v>16432</v>
       </c>
       <c r="K122">
-        <v>68256</v>
+        <v>68527</v>
       </c>
       <c r="L122">
-        <v>44170</v>
+        <v>44470</v>
       </c>
       <c r="M122">
-        <v>20158</v>
+        <v>20708</v>
       </c>
       <c r="N122">
-        <v>24012</v>
+        <v>23762</v>
       </c>
       <c r="O122">
-        <v>23340</v>
+        <v>23359</v>
       </c>
       <c r="P122">
-        <v>7557</v>
+        <v>7118</v>
       </c>
       <c r="Q122">
-        <v>15783</v>
+        <v>16241</v>
       </c>
       <c r="R122">
-        <v>746</v>
+        <v>698</v>
       </c>
       <c r="S122">
-        <v>85553</v>
+        <v>87950</v>
       </c>
       <c r="T122">
-        <v>82699</v>
+        <v>84959</v>
       </c>
       <c r="U122">
-        <v>311209</v>
+        <v>308322</v>
       </c>
       <c r="V122">
-        <v>31411</v>
+        <v>31252</v>
       </c>
       <c r="W122">
-        <v>78691</v>
+        <v>78497</v>
       </c>
       <c r="X122">
-        <v>4506</v>
+        <v>4525</v>
       </c>
       <c r="Y122">
-        <v>228012</v>
+        <v>225300</v>
       </c>
       <c r="Z122">
-        <v>232518</v>
+        <v>229825</v>
       </c>
       <c r="AA122">
-        <v>47280</v>
+        <v>47245</v>
       </c>
       <c r="AB122">
-        <v>243497</v>
+        <v>240685</v>
       </c>
       <c r="AC122">
-        <v>16964</v>
+        <v>17270</v>
       </c>
       <c r="AD122">
-        <v>226533</v>
+        <v>223415</v>
       </c>
       <c r="AE122">
-        <v>62253</v>
+        <v>61818</v>
       </c>
       <c r="AF122">
-        <v>12555</v>
+        <v>12915</v>
       </c>
       <c r="AG122">
-        <v>151725</v>
+        <v>148682</v>
       </c>
       <c r="AH122">
-        <v>110764</v>
+        <v>110660</v>
       </c>
       <c r="AI122">
-        <v>138761</v>
+        <v>138320</v>
       </c>
       <c r="AJ122">
-        <v>27997</v>
+        <v>27660</v>
       </c>
       <c r="AK122">
         <v>6580</v>
       </c>
       <c r="AL122">
-        <v>411404</v>
+        <v>412259</v>
       </c>
       <c r="AM122">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="AN122">
-        <v>2854</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="123">
@@ -15333,121 +15333,243 @@
         <v>45748</v>
       </c>
       <c r="B123">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="C123">
-        <v>283143</v>
+        <v>280081</v>
       </c>
       <c r="D123">
-        <v>16190</v>
+        <v>16222</v>
       </c>
       <c r="E123">
-        <v>400371</v>
+        <v>400724</v>
       </c>
       <c r="F123">
-        <v>97771</v>
+        <v>98450</v>
       </c>
       <c r="G123">
-        <v>154074</v>
+        <v>154566</v>
       </c>
       <c r="H123">
-        <v>56303</v>
+        <v>56116</v>
       </c>
       <c r="I123">
-        <v>22282</v>
+        <v>22174</v>
       </c>
       <c r="J123">
-        <v>14620</v>
+        <v>16760</v>
       </c>
       <c r="K123">
-        <v>67155</v>
+        <v>68942</v>
       </c>
       <c r="L123">
-        <v>42806</v>
+        <v>44295</v>
       </c>
       <c r="M123">
-        <v>17909</v>
+        <v>19986</v>
       </c>
       <c r="N123">
-        <v>24897</v>
+        <v>24309</v>
       </c>
       <c r="O123">
-        <v>23595</v>
+        <v>23936</v>
       </c>
       <c r="P123">
-        <v>7470</v>
+        <v>7205</v>
       </c>
       <c r="Q123">
-        <v>16125</v>
+        <v>16731</v>
       </c>
       <c r="R123">
-        <v>754</v>
+        <v>711</v>
       </c>
       <c r="S123">
-        <v>85459</v>
+        <v>89379</v>
       </c>
       <c r="T123">
-        <v>81775</v>
+        <v>85702</v>
       </c>
       <c r="U123">
-        <v>314912</v>
+        <v>311345</v>
       </c>
       <c r="V123">
-        <v>31769</v>
+        <v>31264</v>
       </c>
       <c r="W123">
-        <v>79266</v>
+        <v>78936</v>
       </c>
       <c r="X123">
-        <v>4550</v>
+        <v>4582</v>
       </c>
       <c r="Y123">
-        <v>231096</v>
+        <v>227827</v>
       </c>
       <c r="Z123">
-        <v>235646</v>
+        <v>232409</v>
       </c>
       <c r="AA123">
-        <v>47497</v>
+        <v>47672</v>
       </c>
       <c r="AB123">
-        <v>246483</v>
+        <v>243109</v>
       </c>
       <c r="AC123">
-        <v>17233</v>
+        <v>17388</v>
       </c>
       <c r="AD123">
-        <v>229250</v>
+        <v>225721</v>
       </c>
       <c r="AE123">
-        <v>62444</v>
+        <v>61671</v>
       </c>
       <c r="AF123">
-        <v>12571</v>
+        <v>12951</v>
       </c>
       <c r="AG123">
-        <v>154235</v>
+        <v>151099</v>
       </c>
       <c r="AH123">
-        <v>109548</v>
+        <v>110309</v>
       </c>
       <c r="AI123">
-        <v>137884</v>
+        <v>138344</v>
       </c>
       <c r="AJ123">
-        <v>28336</v>
+        <v>28035</v>
       </c>
       <c r="AK123">
-        <v>6895</v>
+        <v>6892</v>
       </c>
       <c r="AL123">
-        <v>416561</v>
+        <v>416946</v>
       </c>
       <c r="AM123">
-        <v>2835</v>
+        <v>2708</v>
       </c>
       <c r="AN123">
-        <v>3684</v>
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B124">
+        <v>1054</v>
+      </c>
+      <c r="C124">
+        <v>283663</v>
+      </c>
+      <c r="D124">
+        <v>15108</v>
+      </c>
+      <c r="E124">
+        <v>407543</v>
+      </c>
+      <c r="F124">
+        <v>97687</v>
+      </c>
+      <c r="G124">
+        <v>154329</v>
+      </c>
+      <c r="H124">
+        <v>56642</v>
+      </c>
+      <c r="I124">
+        <v>22461</v>
+      </c>
+      <c r="J124">
+        <v>17064</v>
+      </c>
+      <c r="K124">
+        <v>71128</v>
+      </c>
+      <c r="L124">
+        <v>45951</v>
+      </c>
+      <c r="M124">
+        <v>21439</v>
+      </c>
+      <c r="N124">
+        <v>24512</v>
+      </c>
+      <c r="O124">
+        <v>24457</v>
+      </c>
+      <c r="P124">
+        <v>7324</v>
+      </c>
+      <c r="Q124">
+        <v>17133</v>
+      </c>
+      <c r="R124">
+        <v>720</v>
+      </c>
+      <c r="S124">
+        <v>91775</v>
+      </c>
+      <c r="T124">
+        <v>88192</v>
+      </c>
+      <c r="U124">
+        <v>315768</v>
+      </c>
+      <c r="V124">
+        <v>32105</v>
+      </c>
+      <c r="W124">
+        <v>80327</v>
+      </c>
+      <c r="X124">
+        <v>4695</v>
+      </c>
+      <c r="Y124">
+        <v>230746</v>
+      </c>
+      <c r="Z124">
+        <v>235441</v>
+      </c>
+      <c r="AA124">
+        <v>48222</v>
+      </c>
+      <c r="AB124">
+        <v>246282</v>
+      </c>
+      <c r="AC124">
+        <v>18101</v>
+      </c>
+      <c r="AD124">
+        <v>228181</v>
+      </c>
+      <c r="AE124">
+        <v>62551</v>
+      </c>
+      <c r="AF124">
+        <v>13229</v>
+      </c>
+      <c r="AG124">
+        <v>152401</v>
+      </c>
+      <c r="AH124">
+        <v>110816</v>
+      </c>
+      <c r="AI124">
+        <v>139221</v>
+      </c>
+      <c r="AJ124">
+        <v>28405</v>
+      </c>
+      <c r="AK124">
+        <v>6925</v>
+      </c>
+      <c r="AL124">
+        <v>422651</v>
+      </c>
+      <c r="AM124">
+        <v>2529</v>
+      </c>
+      <c r="AN124">
+        <v>3583</v>
       </c>
     </row>
   </sheetData>

--- a/Codes Données/pib_D_val.xlsx
+++ b/Codes Données/pib_D_val.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15211,121 +15211,121 @@
         <v>45658</v>
       </c>
       <c r="B122">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="C122">
-        <v>277070</v>
+        <v>277243</v>
       </c>
       <c r="D122">
-        <v>15987</v>
+        <v>15818</v>
       </c>
       <c r="E122">
-        <v>396272</v>
+        <v>396313</v>
       </c>
       <c r="F122">
-        <v>98487</v>
+        <v>98497</v>
       </c>
       <c r="G122">
-        <v>154307</v>
+        <v>153997</v>
       </c>
       <c r="H122">
-        <v>55820</v>
+        <v>55500</v>
       </c>
       <c r="I122">
-        <v>21965</v>
+        <v>21895</v>
       </c>
       <c r="J122">
-        <v>16432</v>
+        <v>16442</v>
       </c>
       <c r="K122">
-        <v>68527</v>
+        <v>68433</v>
       </c>
       <c r="L122">
-        <v>44470</v>
+        <v>44351</v>
       </c>
       <c r="M122">
-        <v>20708</v>
+        <v>20689</v>
       </c>
       <c r="N122">
-        <v>23762</v>
+        <v>23662</v>
       </c>
       <c r="O122">
-        <v>23359</v>
+        <v>23384</v>
       </c>
       <c r="P122">
-        <v>7118</v>
+        <v>7166</v>
       </c>
       <c r="Q122">
-        <v>16241</v>
+        <v>16218</v>
       </c>
       <c r="R122">
         <v>698</v>
       </c>
       <c r="S122">
-        <v>87950</v>
+        <v>87903</v>
       </c>
       <c r="T122">
-        <v>84959</v>
+        <v>84875</v>
       </c>
       <c r="U122">
-        <v>308322</v>
+        <v>308410</v>
       </c>
       <c r="V122">
-        <v>31252</v>
+        <v>31167</v>
       </c>
       <c r="W122">
-        <v>78497</v>
+        <v>78565</v>
       </c>
       <c r="X122">
-        <v>4525</v>
+        <v>4533</v>
       </c>
       <c r="Y122">
-        <v>225300</v>
+        <v>225312</v>
       </c>
       <c r="Z122">
-        <v>229825</v>
+        <v>229845</v>
       </c>
       <c r="AA122">
-        <v>47245</v>
+        <v>47398</v>
       </c>
       <c r="AB122">
-        <v>240685</v>
+        <v>240707</v>
       </c>
       <c r="AC122">
-        <v>17270</v>
+        <v>17190</v>
       </c>
       <c r="AD122">
-        <v>223415</v>
+        <v>223517</v>
       </c>
       <c r="AE122">
-        <v>61818</v>
+        <v>61964</v>
       </c>
       <c r="AF122">
-        <v>12915</v>
+        <v>12885</v>
       </c>
       <c r="AG122">
-        <v>148682</v>
+        <v>148668</v>
       </c>
       <c r="AH122">
         <v>110660</v>
       </c>
       <c r="AI122">
-        <v>138320</v>
+        <v>138179</v>
       </c>
       <c r="AJ122">
-        <v>27660</v>
+        <v>27519</v>
       </c>
       <c r="AK122">
-        <v>6580</v>
+        <v>6500</v>
       </c>
       <c r="AL122">
-        <v>412259</v>
+        <v>412131</v>
       </c>
       <c r="AM122">
-        <v>2080</v>
+        <v>2104</v>
       </c>
       <c r="AN122">
-        <v>2991</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="123">
@@ -15333,121 +15333,121 @@
         <v>45748</v>
       </c>
       <c r="B123">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="C123">
-        <v>280081</v>
+        <v>280325</v>
       </c>
       <c r="D123">
-        <v>16222</v>
+        <v>16100</v>
       </c>
       <c r="E123">
-        <v>400724</v>
+        <v>400613</v>
       </c>
       <c r="F123">
-        <v>98450</v>
+        <v>98465</v>
       </c>
       <c r="G123">
-        <v>154566</v>
+        <v>154238</v>
       </c>
       <c r="H123">
-        <v>56116</v>
+        <v>55773</v>
       </c>
       <c r="I123">
-        <v>22174</v>
+        <v>22060</v>
       </c>
       <c r="J123">
-        <v>16760</v>
+        <v>16737</v>
       </c>
       <c r="K123">
-        <v>68942</v>
+        <v>68925</v>
       </c>
       <c r="L123">
-        <v>44295</v>
+        <v>44273</v>
       </c>
       <c r="M123">
-        <v>19986</v>
+        <v>20014</v>
       </c>
       <c r="N123">
-        <v>24309</v>
+        <v>24259</v>
       </c>
       <c r="O123">
-        <v>23936</v>
+        <v>23942</v>
       </c>
       <c r="P123">
-        <v>7205</v>
+        <v>7272</v>
       </c>
       <c r="Q123">
-        <v>16731</v>
+        <v>16670</v>
       </c>
       <c r="R123">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S123">
-        <v>89379</v>
+        <v>89120</v>
       </c>
       <c r="T123">
-        <v>85702</v>
+        <v>85662</v>
       </c>
       <c r="U123">
-        <v>311345</v>
+        <v>311493</v>
       </c>
       <c r="V123">
-        <v>31264</v>
+        <v>31168</v>
       </c>
       <c r="W123">
-        <v>78936</v>
+        <v>79063</v>
       </c>
       <c r="X123">
-        <v>4582</v>
+        <v>4590</v>
       </c>
       <c r="Y123">
-        <v>227827</v>
+        <v>227840</v>
       </c>
       <c r="Z123">
-        <v>232409</v>
+        <v>232430</v>
       </c>
       <c r="AA123">
-        <v>47672</v>
+        <v>47895</v>
       </c>
       <c r="AB123">
-        <v>243109</v>
+        <v>243128</v>
       </c>
       <c r="AC123">
-        <v>17388</v>
+        <v>17329</v>
       </c>
       <c r="AD123">
-        <v>225721</v>
+        <v>225799</v>
       </c>
       <c r="AE123">
-        <v>61671</v>
+        <v>61799</v>
       </c>
       <c r="AF123">
-        <v>12951</v>
+        <v>12921</v>
       </c>
       <c r="AG123">
-        <v>151099</v>
+        <v>151079</v>
       </c>
       <c r="AH123">
         <v>110309</v>
       </c>
       <c r="AI123">
-        <v>138344</v>
+        <v>138138</v>
       </c>
       <c r="AJ123">
-        <v>28035</v>
+        <v>27829</v>
       </c>
       <c r="AK123">
-        <v>6892</v>
+        <v>6772</v>
       </c>
       <c r="AL123">
-        <v>416946</v>
+        <v>416713</v>
       </c>
       <c r="AM123">
-        <v>2708</v>
+        <v>2505</v>
       </c>
       <c r="AN123">
-        <v>3677</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="124">
@@ -15455,121 +15455,243 @@
         <v>45839</v>
       </c>
       <c r="B124">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="C124">
-        <v>283663</v>
+        <v>283861</v>
       </c>
       <c r="D124">
-        <v>15108</v>
+        <v>14674</v>
       </c>
       <c r="E124">
-        <v>407543</v>
+        <v>407670</v>
       </c>
       <c r="F124">
-        <v>97687</v>
+        <v>97542</v>
       </c>
       <c r="G124">
-        <v>154329</v>
+        <v>153691</v>
       </c>
       <c r="H124">
-        <v>56642</v>
+        <v>56149</v>
       </c>
       <c r="I124">
-        <v>22461</v>
+        <v>22318</v>
       </c>
       <c r="J124">
-        <v>17064</v>
+        <v>17046</v>
       </c>
       <c r="K124">
-        <v>71128</v>
+        <v>71195</v>
       </c>
       <c r="L124">
-        <v>45951</v>
+        <v>45961</v>
       </c>
       <c r="M124">
-        <v>21439</v>
+        <v>21449</v>
       </c>
       <c r="N124">
         <v>24512</v>
       </c>
       <c r="O124">
-        <v>24457</v>
+        <v>24515</v>
       </c>
       <c r="P124">
-        <v>7324</v>
+        <v>7410</v>
       </c>
       <c r="Q124">
-        <v>17133</v>
+        <v>17105</v>
       </c>
       <c r="R124">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S124">
-        <v>91775</v>
+        <v>91850</v>
       </c>
       <c r="T124">
-        <v>88192</v>
+        <v>88241</v>
       </c>
       <c r="U124">
-        <v>315768</v>
+        <v>315820</v>
       </c>
       <c r="V124">
-        <v>32105</v>
+        <v>31959</v>
       </c>
       <c r="W124">
-        <v>80327</v>
+        <v>80453</v>
       </c>
       <c r="X124">
-        <v>4695</v>
+        <v>4704</v>
       </c>
       <c r="Y124">
-        <v>230746</v>
+        <v>230663</v>
       </c>
       <c r="Z124">
-        <v>235441</v>
+        <v>235367</v>
       </c>
       <c r="AA124">
-        <v>48222</v>
+        <v>48494</v>
       </c>
       <c r="AB124">
-        <v>246282</v>
+        <v>246203</v>
       </c>
       <c r="AC124">
-        <v>18101</v>
+        <v>18071</v>
       </c>
       <c r="AD124">
-        <v>228181</v>
+        <v>228132</v>
       </c>
       <c r="AE124">
-        <v>62551</v>
+        <v>62642</v>
       </c>
       <c r="AF124">
-        <v>13229</v>
+        <v>13202</v>
       </c>
       <c r="AG124">
-        <v>152401</v>
+        <v>152288</v>
       </c>
       <c r="AH124">
         <v>110816</v>
       </c>
       <c r="AI124">
-        <v>139221</v>
+        <v>139017</v>
       </c>
       <c r="AJ124">
-        <v>28405</v>
+        <v>28201</v>
       </c>
       <c r="AK124">
-        <v>6925</v>
+        <v>6778</v>
       </c>
       <c r="AL124">
-        <v>422651</v>
+        <v>422344</v>
       </c>
       <c r="AM124">
-        <v>2529</v>
+        <v>2540</v>
       </c>
       <c r="AN124">
-        <v>3583</v>
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B125">
+        <v>1465</v>
+      </c>
+      <c r="C125">
+        <v>289878</v>
+      </c>
+      <c r="D125">
+        <v>15644</v>
+      </c>
+      <c r="E125">
+        <v>418951</v>
+      </c>
+      <c r="F125">
+        <v>97567</v>
+      </c>
+      <c r="G125">
+        <v>155206</v>
+      </c>
+      <c r="H125">
+        <v>57639</v>
+      </c>
+      <c r="I125">
+        <v>22860</v>
+      </c>
+      <c r="J125">
+        <v>17337</v>
+      </c>
+      <c r="K125">
+        <v>73091</v>
+      </c>
+      <c r="L125">
+        <v>47282</v>
+      </c>
+      <c r="M125">
+        <v>21989</v>
+      </c>
+      <c r="N125">
+        <v>25293</v>
+      </c>
+      <c r="O125">
+        <v>25069</v>
+      </c>
+      <c r="P125">
+        <v>8036</v>
+      </c>
+      <c r="Q125">
+        <v>17033</v>
+      </c>
+      <c r="R125">
+        <v>740</v>
+      </c>
+      <c r="S125">
+        <v>94326</v>
+      </c>
+      <c r="T125">
+        <v>90428</v>
+      </c>
+      <c r="U125">
+        <v>324625</v>
+      </c>
+      <c r="V125">
+        <v>34747</v>
+      </c>
+      <c r="W125">
+        <v>84039</v>
+      </c>
+      <c r="X125">
+        <v>4759</v>
+      </c>
+      <c r="Y125">
+        <v>235827</v>
+      </c>
+      <c r="Z125">
+        <v>240586</v>
+      </c>
+      <c r="AA125">
+        <v>49292</v>
+      </c>
+      <c r="AB125">
+        <v>251751</v>
+      </c>
+      <c r="AC125">
+        <v>18390</v>
+      </c>
+      <c r="AD125">
+        <v>233361</v>
+      </c>
+      <c r="AE125">
+        <v>64742</v>
+      </c>
+      <c r="AF125">
+        <v>13554</v>
+      </c>
+      <c r="AG125">
+        <v>155065</v>
+      </c>
+      <c r="AH125">
+        <v>110553</v>
+      </c>
+      <c r="AI125">
+        <v>139562</v>
+      </c>
+      <c r="AJ125">
+        <v>29009</v>
+      </c>
+      <c r="AK125">
+        <v>6936</v>
+      </c>
+      <c r="AL125">
+        <v>434595</v>
+      </c>
+      <c r="AM125">
+        <v>2433</v>
+      </c>
+      <c r="AN125">
+        <v>3898</v>
       </c>
     </row>
   </sheetData>
